--- a/src/main/resources/dataExcel/TestResults.xlsx
+++ b/src/main/resources/dataExcel/TestResults.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\RyanairDemo\src\main\resources\dataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="7485" windowWidth="17220" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="7485"/>
   </bookViews>
   <sheets>
-    <sheet name="Metrics" r:id="rId1" sheetId="11"/>
-    <sheet name="RegressionTests" r:id="rId2" sheetId="10"/>
+    <sheet name="Metrics" sheetId="11" r:id="rId1"/>
+    <sheet name="RegressionTests" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
     <author>Rafael Gutierrez</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D6" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E6" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F6" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D8" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Test Case</t>
   </si>
@@ -595,173 +595,172 @@
     </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="3">
+  <cellXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="14" fillId="8" fontId="1" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="6" fontId="3" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="6" fontId="3" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="6" fontId="3" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="7"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="6" fontId="3" numFmtId="164" xfId="5">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="6" fontId="3" numFmtId="164" xfId="5">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="6" fontId="3" numFmtId="9" xfId="6">
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="19" fillId="8" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="0" numFmtId="164" xfId="5">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="8" fontId="1" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="8" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="8" fontId="0" numFmtId="164" xfId="5">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="8" fontId="0" numFmtId="9" xfId="6">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="8" fontId="1" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="24" fillId="8" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="8" fontId="3" numFmtId="164" xfId="5">
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="6" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle builtinId="30" name="20% - Énfasis1" xfId="2"/>
-    <cellStyle builtinId="31" name="40% - Énfasis1" xfId="3"/>
-    <cellStyle builtinId="29" name="Énfasis1" xfId="1"/>
-    <cellStyle builtinId="8" name="Hipervínculo" xfId="7"/>
-    <cellStyle builtinId="3" name="Millares" xfId="5"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8"/>
+    <cellStyle name="Millares" xfId="5" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle builtinId="5" name="Porcentaje" xfId="6"/>
+    <cellStyle name="Porcentaje" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FF00CCFF"/>
@@ -779,7 +778,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1144,31 +1143,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="6">
+                <c:pt idx="6" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt formatCode="0%" idx="9">
-                  <c:v>0</c:v>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,7 +1205,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1218,11 +1217,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1253,7 +1252,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1277,11 +1276,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1319,11 +1318,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1347,7 +1346,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1370,14 +1369,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1393,11 +1392,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1431,11 +1430,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2137,31 +2136,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="4">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="6">
+                <c:pt idx="6" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt formatCode="0%" idx="9">
-                  <c:v>0</c:v>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,11 +2201,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2230,7 +2229,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -2253,7 +2252,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3328,7 +3327,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3409,10 +3408,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3447,7 +3446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3482,7 +3481,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3576,21 +3575,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3607,7 +3606,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3659,28 +3658,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3704,7 +3703,7 @@
       <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="12"/>
@@ -3717,7 +3716,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row ht="15.75" r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3730,20 +3729,20 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row ht="15.75" r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="48"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
     </row>
-    <row ht="15.75" r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
@@ -3753,160 +3752,155 @@
       <c r="C8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row ht="15.75" r="9" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="18">
+        <f>RegressionTests!D8+RegressionTests!E8</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="33">
+        <f t="shared" ref="C9" si="0">B9-(E9+G9+I9)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
+        <f t="shared" ref="D9" si="1">C9*100/B9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="42">
+        <f>RegressionTests!D8</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" ref="F9" si="2">E9*100/B9</f>
+        <v>100</v>
+      </c>
+      <c r="G9" s="43">
+        <f>RegressionTests!E8</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="40">
+        <f t="shared" ref="H9" si="3">G9*100/B9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="39">
+        <f>RegressionTests!F8</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="38"/>
+      <c r="K9" s="41">
+        <f t="shared" ref="K9" si="4">(I9+G9+E9)/B9</f>
         <v>1</v>
       </c>
-      <c r="C9" s="34" t="n">
-        <f ref="C9" si="0" t="shared">B9-(E9+G9+I9)</f>
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="38" t="n">
-        <f ref="D9" si="1" t="shared">C9*100/B9</f>
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="43" t="n">
-        <f>RegressionTests!D8</f>
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="45" t="n">
-        <f ref="F9" si="2" t="shared">E9*100/B9</f>
-        <v>100.0</v>
-      </c>
-      <c r="G9" s="44" t="n">
-        <f>RegressionTests!E8</f>
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="41" t="n">
-        <f ref="H9" si="3" t="shared">G9*100/B9</f>
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="40" t="n">
-        <f>RegressionTests!F8</f>
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="42" t="n">
-        <f ref="K9" si="4" t="shared">(I9+G9+E9)/B9</f>
-        <v>1.0</v>
-      </c>
     </row>
-    <row ht="15.75" r="10" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="20" t="n">
+      <c r="B10" s="20">
         <f>SUM(B9:B9)</f>
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="20">
         <f>SUM(C9:C9)</f>
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="29">
         <f>AVERAGE(D9:D9)</f>
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
         <f>SUM(E9:E9)</f>
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29">
         <f>AVERAGE(F9:F9)</f>
-        <v>100.0</v>
-      </c>
-      <c r="G10" s="31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" s="30">
         <f>SUM(G9:G9)</f>
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
         <f>AVERAGE(H9:H9)</f>
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="30">
         <f>SUM(I9:I9)</f>
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32">
         <f>AVERAGE(K9:K9)</f>
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-    </row>
-    <row ht="15.75" r="16" spans="1:11" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row ht="15.75" r="17" spans="12:12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A7:K7"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="31.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="93.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="59.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="93.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="59.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -3934,30 +3928,30 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="25"/>
+      <c r="F4" s="24"/>
     </row>
-    <row customHeight="1" ht="15" r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
     </row>
-    <row customHeight="1" ht="15" r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -3970,16 +3964,16 @@
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="32.25" r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>1.0</v>
+      <c r="D7" s="4">
+        <v>2</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -3988,38 +3982,38 @@
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="7" t="n">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="7">
         <f>SUM(D7:D7)</f>
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
         <f>SUM(E7:E7)</f>
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
         <f>SUM(F7:F7)</f>
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
     </row>
-    <row customHeight="1" ht="15" r="14" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row customHeight="1" ht="27" r="17" x14ac:dyDescent="0.25"/>
-    <row customHeight="1" ht="25.5" r="29" x14ac:dyDescent="0.25"/>
-    <row customHeight="1" ht="25.5" r="36" x14ac:dyDescent="0.25"/>
-    <row customHeight="1" ht="25.5" r="43" x14ac:dyDescent="0.25"/>
-    <row customHeight="1" ht="25.5" r="50" x14ac:dyDescent="0.25"/>
-    <row customHeight="1" ht="25.5" r="57" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A5:A7"/>
@@ -4027,8 +4021,8 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:F9"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/dataExcel/TestResults.xlsx
+++ b/src/main/resources/dataExcel/TestResults.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\RyanairDemo\src\main\resources\dataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="7485"/>
+    <workbookView windowHeight="7485" windowWidth="17220" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Metrics" sheetId="11" r:id="rId1"/>
-    <sheet name="RegressionTests" sheetId="10" r:id="rId2"/>
+    <sheet name="Metrics" r:id="rId1" sheetId="11"/>
+    <sheet name="RegressionTests" r:id="rId2" sheetId="10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
     <author>Rafael Gutierrez</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="E6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment authorId="0" ref="F6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D8" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,172 +595,172 @@
     </border>
   </borders>
   <cellStyleXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="14" fillId="8" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="6" fontId="3" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="6" fontId="3" numFmtId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="7"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="3">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="6" fontId="3" numFmtId="164" xfId="5">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="6" fontId="3" numFmtId="164" xfId="5">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="6" fontId="3" numFmtId="9" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="19" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="8" fontId="0" numFmtId="164" xfId="5">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="8" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="8" fontId="0" numFmtId="164" xfId="5">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="11" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="8" fontId="0" numFmtId="9" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="23" fillId="8" fontId="1" numFmtId="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="24" fillId="8" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="8" fontId="3" numFmtId="164" xfId="5">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="4">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="20% - Énfasis1" xfId="2" builtinId="30"/>
-    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
-    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8"/>
-    <cellStyle name="Millares" xfId="5" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="30" name="20% - Énfasis1" xfId="2"/>
+    <cellStyle builtinId="31" name="40% - Énfasis1" xfId="3"/>
+    <cellStyle builtinId="29" name="Énfasis1" xfId="1"/>
+    <cellStyle builtinId="8" name="Hipervínculo" xfId="7"/>
+    <cellStyle builtinId="3" name="Millares" xfId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Porcentaje" xfId="6" builtinId="5"/>
+    <cellStyle builtinId="5" name="Porcentaje" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF00CCFF"/>
@@ -778,7 +778,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1148,25 +1148,25 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="4">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0%">
+                <c:pt formatCode="0%" idx="9">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1205,7 +1205,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1217,11 +1217,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1252,7 +1252,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -1276,11 +1276,11 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="-60000000" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1318,11 +1318,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1346,7 +1346,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1369,14 +1369,14 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1392,11 +1392,11 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1430,11 +1430,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" spc="0" strike="noStrike" sz="1400" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2141,25 +2141,25 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="4">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-">
+                <c:pt formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0%">
+                <c:pt formatCode="0%" idx="9">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2201,11 +2201,11 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr anchor="ctr" anchorCtr="1" rot="0" spcFirstLastPara="1" vert="horz" vertOverflow="ellipsis" wrap="square"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr b="0" baseline="0" i="0" kern="1200" strike="noStrike" sz="900" u="none">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2229,7 +2229,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -2252,7 +2252,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.75"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3327,7 +3327,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3400,6 +3400,99 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>18976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEE9443-1FAD-4EB7-A148-42DD86931EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5172074" cy="590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>590476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4EAB56-4B22-4A00-A472-4066550124C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8305800" cy="590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3408,10 +3501,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3446,7 +3539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3481,7 +3574,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3575,21 +3668,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3606,7 +3699,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3658,28 +3751,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3716,7 +3809,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="6" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3729,7 +3822,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="7" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -3742,7 +3835,7 @@
       <c r="J7" s="46"/>
       <c r="K7" s="47"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="8" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
@@ -3777,88 +3870,88 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="9" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="18" t="n">
         <f>RegressionTests!D8+RegressionTests!E8</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="33">
-        <f t="shared" ref="C9" si="0">B9-(E9+G9+I9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="37">
-        <f t="shared" ref="D9" si="1">C9*100/B9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="33" t="n">
+        <f ref="C9" si="0" t="shared">B9-(E9+G9+I9)</f>
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="37" t="n">
+        <f ref="D9" si="1" t="shared">C9*100/B9</f>
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="42" t="n">
         <f>RegressionTests!D8</f>
-        <v>2</v>
-      </c>
-      <c r="F9" s="44">
-        <f t="shared" ref="F9" si="2">E9*100/B9</f>
-        <v>100</v>
-      </c>
-      <c r="G9" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="44" t="n">
+        <f ref="F9" si="2" t="shared">E9*100/B9</f>
+        <v>100.0</v>
+      </c>
+      <c r="G9" s="43" t="n">
         <f>RegressionTests!E8</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="40">
-        <f t="shared" ref="H9" si="3">G9*100/B9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="40" t="n">
+        <f ref="H9" si="3" t="shared">G9*100/B9</f>
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="39" t="n">
         <f>RegressionTests!F8</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" s="38"/>
-      <c r="K9" s="41">
-        <f t="shared" ref="K9" si="4">(I9+G9+E9)/B9</f>
-        <v>1</v>
+      <c r="K9" s="41" t="n">
+        <f ref="K9" si="4" t="shared">(I9+G9+E9)/B9</f>
+        <v>1.0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="10" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="20" t="n">
         <f>SUM(B9:B9)</f>
-        <v>2</v>
-      </c>
-      <c r="C10" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="20" t="n">
         <f>SUM(C9:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="29" t="n">
         <f>AVERAGE(D9:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="30" t="n">
         <f>SUM(E9:E9)</f>
-        <v>2</v>
-      </c>
-      <c r="F10" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="29" t="n">
         <f>AVERAGE(F9:F9)</f>
-        <v>100</v>
-      </c>
-      <c r="G10" s="30">
+        <v>100.0</v>
+      </c>
+      <c r="G10" s="30" t="n">
         <f>SUM(G9:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="29" t="n">
         <f>AVERAGE(H9:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="30" t="n">
         <f>SUM(I9:I9)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" s="31"/>
-      <c r="K10" s="32">
+      <c r="K10" s="32" t="n">
         <f>AVERAGE(K9:K9)</f>
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3878,29 +3971,29 @@
   <mergeCells count="1">
     <mergeCell ref="A7:K7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="93.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="59.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="31.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="93.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="59.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="47.25" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -3936,7 +4029,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15" r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
         <v>1</v>
       </c>
@@ -3946,7 +4039,7 @@
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15" r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="10" t="s">
         <v>2</v>
@@ -3964,7 +4057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="32.25" r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" t="s">
         <v>20</v>
@@ -3972,8 +4065,8 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4">
-        <v>2</v>
+      <c r="D7" s="4" t="n">
+        <v>2.0</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -3984,17 +4077,17 @@
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
-      <c r="D8" s="7">
+      <c r="D8" s="7" t="n">
         <f>SUM(D7:D7)</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <f>SUM(E7:E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="7" t="n">
         <f>SUM(F7:F7)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4007,13 +4100,13 @@
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="15" r="14" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="27" r="17" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="25.5" r="29" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="25.5" r="36" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="25.5" r="43" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="25.5" r="50" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="25.5" r="57" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A5:A7"/>
@@ -4021,8 +4114,9 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:F9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>